--- a/html/data/Hoa/Everton/Player.xlsx
+++ b/html/data/Hoa/Everton/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -53,19 +53,222 @@
   </si>
   <si>
     <t>red card</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Joel Robles</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>17/06/1990</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/73756830674e4f2eb8b5dad5162632a7.jpg?as=1&amp;h=549&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Tony Hibbert</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/df121efe9ab64347898dc7f3dcbcb35c.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>20/02/1981</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Leighton Baines</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/4bdb8b1c78c440fd8288d6de18b23ad8.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Darron Gibson</t>
+  </si>
+  <si>
+    <t>Midfielder</t>
+  </si>
+  <si>
+    <t>25/10/1987</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/e6d17d9da9344193b19b31c38bc7764a.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Samuel Eto'o</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/a2246b2aded34250b758db411c80dfc7.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Phil Jagielka</t>
+  </si>
+  <si>
+    <t>17/08/1982</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/7529fa2ed1344dc5b48a9993cf03082d.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Aiden McGeady</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/0ac8892f222e45d2b214f488da598c50.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Bryan Oviedo</t>
+  </si>
+  <si>
+    <t>18/02/1990</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/dcab5dc80b474f32afc4fce6564863e9.jpg?as=1&amp;h=528&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Arouna Koné</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/098facc8a04c48dabefde4a47dc4f226.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Kevin Mirallas</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/22e03198d18f4dd9a5f5f809e7c0e14a.jpg?as=1&amp;h=422&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Steven Naismith</t>
+  </si>
+  <si>
+    <t>14/09/1986</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/c9da4ebbbbfa429d85f77a087fa05551.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Sylvain Distin</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/950387f3b9e2484dbc79c8f78aa86cf3.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>16/12/1977</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>James McCarthy</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/8f64caa2c5464413bba7a514c7da9db5.jpg?as=1&amp;h=422&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Gareth Barry</t>
+  </si>
+  <si>
+    <t>23/02/1981</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/c48c232780db43e3850827b103311f49.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Leon Osman</t>
+  </si>
+  <si>
+    <t>17/05/1981</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/e064dfbaabd44d9eb092584040e0d6c2.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Steven Pienaar</t>
+  </si>
+  <si>
+    <t>17/03/1982</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/d9022b07df94464f950a891512d3c158.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Seamus Coleman</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/5530f1b6d85e4f3fb52ee61df924c66a.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
+  </si>
+  <si>
+    <t>Tim Howard</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>http://d2qsy1h1438jt3.cloudfront.net/~/media/54922eefd0854f6da4b00a9efe5b5e7f.jpg?as=1&amp;h=450&amp;la=en&amp;w=750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,14 +309,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,20 +625,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +682,770 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="I3">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3">
+        <v>264</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30998</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>74</v>
+      </c>
+      <c r="J4" s="3">
+        <v>318</v>
+      </c>
+      <c r="K4" s="3">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5" s="3">
+        <v>69</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>29862</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="I6" s="3">
+        <v>75</v>
+      </c>
+      <c r="J6" s="3">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="I7">
+        <v>83</v>
+      </c>
+      <c r="J7" s="3">
+        <v>259</v>
+      </c>
+      <c r="K7" s="5">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>16</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31506</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I8" s="3">
+        <v>83</v>
+      </c>
+      <c r="J8" s="3">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I9">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>30631</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="I10" s="3">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>31907</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="I11" s="3">
+        <v>68</v>
+      </c>
+      <c r="J11" s="3">
+        <v>70</v>
+      </c>
+      <c r="K11" s="5">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5">
+        <v>11</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I12" s="3">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3">
+        <v>75</v>
+      </c>
+      <c r="K12" s="5">
+        <v>13</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="I13" s="3">
+        <v>87</v>
+      </c>
+      <c r="J13" s="3">
+        <v>454</v>
+      </c>
+      <c r="K13" s="5">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5">
+        <v>40</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4">
+        <v>33218</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3">
+        <v>160</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8</v>
+      </c>
+      <c r="L14" s="5">
+        <v>27</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="I15" s="3">
+        <v>78</v>
+      </c>
+      <c r="J15" s="3">
+        <v>543</v>
+      </c>
+      <c r="K15" s="5">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5">
+        <v>100</v>
+      </c>
+      <c r="M15" s="5">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="I16" s="3">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3">
+        <v>333</v>
+      </c>
+      <c r="K16" s="5">
+        <v>43</v>
+      </c>
+      <c r="L16" s="5">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="I17" s="3">
+        <v>69</v>
+      </c>
+      <c r="J17" s="3">
+        <v>194</v>
+      </c>
+      <c r="K17" s="5">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5">
+        <v>39</v>
+      </c>
+      <c r="M17" s="5">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>32457</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I18" s="3">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3">
+        <v>130</v>
+      </c>
+      <c r="K18" s="5">
+        <v>12</v>
+      </c>
+      <c r="L18" s="5">
+        <v>15</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>29009</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I19" s="3">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3">
+        <v>358</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>14</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.premierleague.com/en-gb/players/profile.overview.html/joel-robles"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.premierleague.com/en-gb/players/profile.overview.html/tony-hibbert"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.premierleague.com/en-gb/players/profile.overview.html/leighton-baines"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.premierleague.com/en-gb/players/profile.overview.html/darron-gibson"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.premierleague.com/en-gb/players/profile.overview.html/samuel-etoo"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.premierleague.com/en-gb/players/profile.overview.html/phil-jagielka"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.premierleague.com/en-gb/players/profile.overview.html/aiden-mcgeady"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.premierleague.com/en-gb/players/profile.overview.html/bryan-oviedo"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.premierleague.com/en-gb/players/profile.overview.html/arouna-kone"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.premierleague.com/en-gb/players/profile.overview.html/kevin-mirallas"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.premierleague.com/en-gb/players/profile.overview.html/steven-naismith"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.premierleague.com/en-gb/players/profile.overview.html/sylvain-distin"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.premierleague.com/en-gb/players/profile.overview.html/james-mccarthy"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.premierleague.com/en-gb/players/profile.overview.html/gareth-barry"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.premierleague.com/en-gb/players/profile.overview.html/leon-osman"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.premierleague.com/en-gb/players/profile.overview.html/steven-pienaar"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.premierleague.com/en-gb/players/profile.overview.html/seamus-coleman"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.premierleague.com/en-gb/players/profile.overview.html/tim-howard"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
 </worksheet>
 </file>